--- a/attendance_report_2025-10-29.xlsx
+++ b/attendance_report_2025-10-29.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,10 @@
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -512,6 +516,26 @@
           <t>2025-10-29 (L4)</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-29 (L5)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-29 (L6)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-29 (L7)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-29 (L8)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -542,6 +566,26 @@
           <t>Present</t>
         </is>
       </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -572,6 +616,26 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -602,6 +666,26 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -630,6 +714,26 @@
       <c r="F5" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
